--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -82,13 +82,13 @@
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
@@ -942,25 +942,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6724137931034483</v>
+        <v>0.6633663366336634</v>
       </c>
       <c r="L14">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,25 +968,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6633663366336634</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M15">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -994,25 +994,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6593406593406593</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L16">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1072,25 +1072,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5688073394495413</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L19">
         <v>186</v>
       </c>
       <c r="M19">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="10:17">
